--- a/화면구성/to최원석부장님/9. 전력공급/낙서장.xlsx
+++ b/화면구성/to최원석부장님/9. 전력공급/낙서장.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\Github\platForm\화면구성\to최원석부장님\9. 전력공급\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7DC4E62-CCAC-4B94-A10C-62C76A9C8BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1794A5-F182-4384-AEC1-43AF3C823113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{A2589C62-25F6-4C8A-B092-D028E555DEF3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A2589C62-25F6-4C8A-B092-D028E555DEF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -619,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854E7E86-CCF9-40E8-AED1-F132ADE0EC94}">
-  <dimension ref="A6:S9"/>
+  <dimension ref="A6:S23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:S8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -812,6 +812,51 @@
       <c r="S9" s="7">
         <f t="shared" si="0"/>
         <v>8.1008580807314951E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.45">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.45">
+      <c r="E18">
+        <f>E17*F18/F17</f>
+        <v>11.333333333333334</v>
+      </c>
+      <c r="F18">
+        <v>85</v>
+      </c>
+      <c r="H18">
+        <f>H17*I18/I17</f>
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.45">
+      <c r="H22">
+        <v>13</v>
+      </c>
+      <c r="I22">
+        <f>H22/8*2</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.45">
+      <c r="I23">
+        <f>H22/8*6</f>
+        <v>9.75</v>
       </c>
     </row>
   </sheetData>
@@ -824,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8E3DBD-343C-464D-8030-6119FCC6332E}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -852,7 +897,7 @@
         <v>107812.827</v>
       </c>
       <c r="C3" s="7">
-        <f>B3/$F$1</f>
+        <f t="shared" ref="C3:C19" si="0">B3/$F$1</f>
         <v>0.18138082233512762</v>
       </c>
     </row>
@@ -864,7 +909,7 @@
         <v>89843.898000000001</v>
       </c>
       <c r="C4" s="7">
-        <f>B4/$F$1</f>
+        <f t="shared" si="0"/>
         <v>0.15115047582448912</v>
       </c>
     </row>
@@ -876,7 +921,7 @@
         <v>85780.164000000004</v>
       </c>
       <c r="C5" s="7">
-        <f>B5/$F$1</f>
+        <f t="shared" si="0"/>
         <v>0.14431378083019852</v>
       </c>
     </row>
@@ -888,7 +933,7 @@
         <v>59383.538</v>
       </c>
       <c r="C6" s="7">
-        <f>B6/$F$1</f>
+        <f t="shared" si="0"/>
         <v>9.9904948746119965E-2</v>
       </c>
     </row>
@@ -900,7 +945,7 @@
         <v>54283.453000000001</v>
       </c>
       <c r="C7" s="7">
-        <f>B7/$F$1</f>
+        <f t="shared" si="0"/>
         <v>9.1324730259881318E-2</v>
       </c>
     </row>
@@ -912,7 +957,7 @@
         <v>49481.591</v>
       </c>
       <c r="C8" s="7">
-        <f>B8/$F$1</f>
+        <f t="shared" si="0"/>
         <v>8.3246232528810776E-2</v>
       </c>
     </row>
@@ -924,7 +969,7 @@
         <v>46579.328999999998</v>
       </c>
       <c r="C9" s="7">
-        <f>B9/$F$1</f>
+        <f t="shared" si="0"/>
         <v>7.836356056073418E-2</v>
       </c>
     </row>
@@ -936,7 +981,7 @@
         <v>33876.525999999998</v>
       </c>
       <c r="C10" s="7">
-        <f>B10/$F$1</f>
+        <f t="shared" si="0"/>
         <v>5.6992774558609162E-2</v>
       </c>
     </row>
@@ -948,7 +993,7 @@
         <v>33641.328999999998</v>
       </c>
       <c r="C11" s="7">
-        <f>B11/$F$1</f>
+        <f t="shared" si="0"/>
         <v>5.6597086712757989E-2</v>
       </c>
     </row>
@@ -960,7 +1005,7 @@
         <v>14990.919</v>
       </c>
       <c r="C12" s="7">
-        <f>B12/$F$1</f>
+        <f t="shared" si="0"/>
         <v>2.5220238550829287E-2</v>
       </c>
     </row>
@@ -972,7 +1017,7 @@
         <v>4815.1530000000002</v>
       </c>
       <c r="C13" s="7">
-        <f>B13/$F$1</f>
+        <f t="shared" si="0"/>
         <v>8.1008580807314951E-3</v>
       </c>
     </row>
@@ -984,7 +1029,7 @@
         <v>4336.7539999999999</v>
       </c>
       <c r="C14" s="7">
-        <f>B14/$F$1</f>
+        <f t="shared" si="0"/>
         <v>7.2960150352532165E-3</v>
       </c>
     </row>
@@ -996,7 +1041,7 @@
         <v>3278.703</v>
       </c>
       <c r="C15" s="7">
-        <f>B15/$F$1</f>
+        <f t="shared" si="0"/>
         <v>5.5159841633004381E-3</v>
       </c>
     </row>
@@ -1008,7 +1053,7 @@
         <v>2763.2</v>
       </c>
       <c r="C16" s="7">
-        <f>B16/$F$1</f>
+        <f t="shared" si="0"/>
         <v>4.6487185451173129E-3</v>
       </c>
     </row>
@@ -1020,7 +1065,7 @@
         <v>2468.9160000000002</v>
       </c>
       <c r="C17" s="7">
-        <f>B17/$F$1</f>
+        <f t="shared" si="0"/>
         <v>4.1536246364855447E-3</v>
       </c>
     </row>
@@ -1032,7 +1077,7 @@
         <v>769.03300000000002</v>
       </c>
       <c r="C18" s="7">
-        <f>B18/$F$1</f>
+        <f t="shared" si="0"/>
         <v>1.2937963118511882E-3</v>
       </c>
     </row>
@@ -1044,7 +1089,7 @@
         <v>295.03300000000002</v>
       </c>
       <c r="C19" s="7">
-        <f>B19/$F$1</f>
+        <f t="shared" si="0"/>
         <v>4.9635400207064147E-4</v>
       </c>
     </row>
